--- a/GB Accounts 2025-26/GB Accounts Self Employed 2026-04-05 (Apr26) Excel 2007/Vat.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Self Employed 2026-04-05 (Apr26) Excel 2007/Vat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Self Employed 2025-04-05 (Apr25) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Self Employed 2026-04-05 (Apr26) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F50B96-8552-D14A-BE01-252D04BC79DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4183DA-A7C5-3D4A-9D99-70E02ED87853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="1160" windowWidth="27820" windowHeight="17220" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,30 +1151,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -1228,6 +1204,30 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,87 +1347,87 @@
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>45350</v>
+            <v>45716</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>45382</v>
+            <v>45747</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>45412</v>
+            <v>45777</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>45443</v>
+            <v>45808</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>45473</v>
+            <v>45838</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>45504</v>
+            <v>45869</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>45535</v>
+            <v>45900</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>45565</v>
+            <v>45930</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>45596</v>
+            <v>45961</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>45626</v>
+            <v>45991</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>45657</v>
+            <v>46022</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>45688</v>
+            <v>46053</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>45716</v>
+            <v>46081</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>45747</v>
+            <v>46112</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>45777</v>
+            <v>46142</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>45808</v>
+            <v>46173</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>45838</v>
+            <v>46203</v>
           </cell>
         </row>
       </sheetData>
@@ -2143,19 +2143,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>[1]Admin!$B$5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2172,15 +2172,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>[1]Admin!$B$6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -2189,32 +2189,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>[1]Admin!$B$7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="129"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="42">
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>[1]Admin!$B$8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -2223,27 +2223,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>[1]Admin!$B$9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B:B,Vatinterface!C:C)</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>[1]Admin!$B$10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2258,17 +2258,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>[1]Admin!$B$11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>[1]Admin!$B$12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2295,17 +2295,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>[1]Admin!$B$13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>[1]Admin!$B$14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2331,17 +2331,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>[1]Admin!$B$15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>[1]Admin!$B$16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2368,17 +2368,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>[1]Admin!$B$18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>[1]Admin!$B$19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2407,13 +2407,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="141" t="str">
+      <c r="B17" s="135" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -2438,12 +2438,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113"/>
-      <c r="B19" s="144" t="str">
+      <c r="B19" s="138" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="114" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)," ")</f>
         <v xml:space="preserve"> </v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="132" t="str">
+      <c r="B21" s="126" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -2496,12 +2496,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -2627,6 +2627,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B4:C7"/>
     <mergeCell ref="B23:E23"/>
@@ -2634,11 +2639,6 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13949,19 +13949,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>[1]Admin!$B$5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13978,15 +13978,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>[1]Admin!$B$6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -13995,32 +13995,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>[1]Admin!$B$7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="129"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="42">
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>[1]Admin!$B$8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -14029,27 +14029,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>[1]Admin!$B$9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B:B,Vatinterface!C:C)</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>[1]Admin!$B$10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14064,17 +14064,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>[1]Admin!$B$11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -14086,7 +14086,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>[1]Admin!$B$12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14101,17 +14101,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>[1]Admin!$B$13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -14122,7 +14122,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>[1]Admin!$B$14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14137,17 +14137,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>[1]Admin!$B$15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -14159,7 +14159,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>[1]Admin!$B$16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14174,17 +14174,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>[1]Admin!$B$18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -14196,7 +14196,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>[1]Admin!$B$19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14213,13 +14213,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="141" t="str">
+      <c r="B17" s="135" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -14244,12 +14244,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113"/>
-      <c r="B19" s="144" t="str">
+      <c r="B19" s="138" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="114" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)," ")</f>
         <v xml:space="preserve"> </v>
@@ -14272,13 +14272,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="132" t="str">
+      <c r="B21" s="126" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -14302,12 +14302,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -14433,18 +14433,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -14500,19 +14500,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>[1]Admin!$B$5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14529,15 +14529,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>[1]Admin!$B$6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -14546,32 +14546,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>[1]Admin!$B$7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="129"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="42">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>[1]Admin!$B$8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -14580,27 +14580,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>[1]Admin!$B$9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B:B,Vatinterface!C:C)</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>[1]Admin!$B$10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14615,17 +14615,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>[1]Admin!$B$11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -14637,7 +14637,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>[1]Admin!$B$12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14652,17 +14652,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>[1]Admin!$B$13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -14673,7 +14673,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>[1]Admin!$B$14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14688,17 +14688,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>[1]Admin!$B$15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -14710,7 +14710,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>[1]Admin!$B$16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14725,17 +14725,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>[1]Admin!$B$18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -14747,7 +14747,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>[1]Admin!$B$19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14764,13 +14764,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="141" t="str">
+      <c r="B17" s="135" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -14795,12 +14795,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113"/>
-      <c r="B19" s="144" t="str">
+      <c r="B19" s="138" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="114" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)," ")</f>
         <v xml:space="preserve"> </v>
@@ -14823,13 +14823,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="132" t="str">
+      <c r="B21" s="126" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -14853,12 +14853,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -14984,18 +14984,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15051,19 +15051,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>[1]Admin!$B$5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15080,15 +15080,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>[1]Admin!$B$6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -15097,32 +15097,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>[1]Admin!$B$7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="129"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="42">
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>[1]Admin!$B$8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -15131,27 +15131,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>[1]Admin!$B$9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B:B,Vatinterface!C:C)</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>[1]Admin!$B$10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15166,17 +15166,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>[1]Admin!$B$11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -15188,7 +15188,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>[1]Admin!$B$12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15203,17 +15203,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>[1]Admin!$B$13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -15224,7 +15224,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>[1]Admin!$B$14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15239,17 +15239,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>[1]Admin!$B$15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -15261,7 +15261,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>[1]Admin!$B$16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15276,17 +15276,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>[1]Admin!$B$18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -15298,7 +15298,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>[1]Admin!$B$19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15315,13 +15315,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="141" t="str">
+      <c r="B17" s="135" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -15346,12 +15346,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113"/>
-      <c r="B19" s="144" t="str">
+      <c r="B19" s="138" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="114" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)," ")</f>
         <v xml:space="preserve"> </v>
@@ -15374,13 +15374,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="132" t="str">
+      <c r="B21" s="126" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -15404,12 +15404,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -15535,18 +15535,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:C7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15602,19 +15602,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>[1]Admin!$B$5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15631,15 +15631,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>[1]Admin!$B$6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -15648,32 +15648,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>[1]Admin!$B$7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="129"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="42">
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>[1]Admin!$B$8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -15682,27 +15682,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>[1]Admin!$B$9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="146"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B:B,Vatinterface!C:C)</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>[1]Admin!$B$10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15717,17 +15717,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>[1]Admin!$B$11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -15739,7 +15739,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>[1]Admin!$B$12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15754,17 +15754,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>[1]Admin!$B$13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -15775,7 +15775,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>[1]Admin!$B$14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15790,17 +15790,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>[1]Admin!$B$15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -15812,7 +15812,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>[1]Admin!$B$16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15827,17 +15827,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>[1]Admin!$B$18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -15849,7 +15849,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>[1]Admin!$B$19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15866,13 +15866,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="141" t="str">
+      <c r="B17" s="135" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -15897,12 +15897,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113"/>
-      <c r="B19" s="144" t="str">
+      <c r="B19" s="138" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="114" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)," ")</f>
         <v xml:space="preserve"> </v>
@@ -15925,13 +15925,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="132" t="str">
+      <c r="B21" s="126" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B:B,Vatinterface!M:M)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -15955,12 +15955,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -16209,11 +16209,11 @@
       <c r="A4" s="56"/>
       <c r="B4" s="62">
         <f>[1]Admin!$B$2</f>
-        <v>45350</v>
+        <v>45716</v>
       </c>
       <c r="C4" s="62">
         <f>B5</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="D4" s="107">
         <f>S02Y1!$G$1</f>
@@ -16246,11 +16246,11 @@
       <c r="A5" s="56"/>
       <c r="B5" s="62">
         <f>[1]Admin!$B$3</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="C5" s="62">
         <f t="shared" ref="C5:C18" si="0">B6</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="D5" s="107">
         <f>S03Y1!$G$1</f>
@@ -16283,11 +16283,11 @@
       <c r="A6" s="56"/>
       <c r="B6" s="62">
         <f>[1]Admin!$B$5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C6" s="62">
         <f t="shared" si="0"/>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="D6" s="107">
         <f>[2]Apr!$I$1</f>
@@ -16332,11 +16332,11 @@
       <c r="A7" s="56"/>
       <c r="B7" s="62">
         <f>[1]Admin!$B$6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C7" s="62">
         <f t="shared" si="0"/>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="D7" s="107">
         <f>[2]May!$I$1</f>
@@ -16381,11 +16381,11 @@
       <c r="A8" s="56"/>
       <c r="B8" s="62">
         <f>[1]Admin!$B$7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C8" s="62">
         <f t="shared" si="0"/>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="D8" s="107">
         <f>[2]Jun!$I$1</f>
@@ -16430,11 +16430,11 @@
       <c r="A9" s="56"/>
       <c r="B9" s="62">
         <f>[1]Admin!$B$8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C9" s="62">
         <f t="shared" si="0"/>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="D9" s="107">
         <f>[2]Jul!$I$1</f>
@@ -16479,11 +16479,11 @@
       <c r="A10" s="56"/>
       <c r="B10" s="62">
         <f>[1]Admin!$B$9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C10" s="62">
         <f t="shared" si="0"/>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="D10" s="107">
         <f>[2]Aug!$I$1</f>
@@ -16528,11 +16528,11 @@
       <c r="A11" s="56"/>
       <c r="B11" s="62">
         <f>[1]Admin!$B$10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C11" s="62">
         <f t="shared" si="0"/>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="D11" s="107">
         <f>[2]Sep!$I$1</f>
@@ -16577,11 +16577,11 @@
       <c r="A12" s="56"/>
       <c r="B12" s="62">
         <f>[1]Admin!$B$11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C12" s="62">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="D12" s="107">
         <f>[2]Oct!$I$1</f>
@@ -16626,11 +16626,11 @@
       <c r="A13" s="56"/>
       <c r="B13" s="62">
         <f>[1]Admin!$B$12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C13" s="62">
         <f t="shared" si="0"/>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="D13" s="107">
         <f>[2]Nov!$I$1</f>
@@ -16675,11 +16675,11 @@
       <c r="A14" s="56"/>
       <c r="B14" s="62">
         <f>[1]Admin!$B$13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C14" s="62">
         <f t="shared" si="0"/>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="D14" s="107">
         <f>[2]Dec!$I$1</f>
@@ -16724,11 +16724,11 @@
       <c r="A15" s="56"/>
       <c r="B15" s="62">
         <f>[1]Admin!$B$14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C15" s="62">
         <f t="shared" si="0"/>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="D15" s="107">
         <f>[2]Jan!$I$1</f>
@@ -16773,11 +16773,11 @@
       <c r="A16" s="56"/>
       <c r="B16" s="62">
         <f>[1]Admin!$B$15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C16" s="62">
         <f t="shared" si="0"/>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="D16" s="107">
         <f>[2]Feb!$I$1</f>
@@ -16822,11 +16822,11 @@
       <c r="A17" s="56"/>
       <c r="B17" s="62">
         <f>[1]Admin!$B$16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C17" s="62">
         <f t="shared" si="0"/>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="D17" s="107">
         <f>[2]Mar!$I$1</f>
@@ -16871,11 +16871,11 @@
       <c r="A18" s="56"/>
       <c r="B18" s="62">
         <f>[1]Admin!$B$18</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="C18" s="62">
         <f t="shared" si="0"/>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="D18" s="107">
         <f>S04Y2!$G$1</f>
@@ -16920,11 +16920,11 @@
       <c r="A19" s="56"/>
       <c r="B19" s="62">
         <f>[1]Admin!$B$19</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="C19" s="63">
         <f>[1]Admin!$B$20</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
       <c r="D19" s="107">
         <f>S05Y2!$G$1</f>
